--- a/프로젝트 문서/요구사항 정의서.xlsx
+++ b/프로젝트 문서/요구사항 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\프로젝트 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\analysis\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16B06E-0771-481E-99B9-F117CB169223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA47DB-EC51-4B12-86FF-71D0C6F6B738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,10 +412,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/프로젝트 문서/요구사항 정의서.xlsx
+++ b/프로젝트 문서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\analysis\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA47DB-EC51-4B12-86FF-71D0C6F6B738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A28C6E-1643-4345-9268-F89430EC1601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/프로젝트 문서/요구사항 정의서.xlsx
+++ b/프로젝트 문서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\analysis\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A28C6E-1643-4345-9268-F89430EC1601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB87BC7-8B50-48F8-84C4-BD78CB2C27DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,46 @@
   </si>
   <si>
     <t>연령별 인구 예측 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 자료 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 자료 가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 머신러닝 자료에 대한 정보를 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">질문과 답변 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주하는 질문에서 + 클릭 시 답변을 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료 설명 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,6 +519,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 문서/요구사항 정의서.xlsx
+++ b/프로젝트 문서/요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\analysis\프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB87BC7-8B50-48F8-84C4-BD78CB2C27DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E0879E-00BC-4C1B-B355-420D398C16F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,86 @@
   </si>
   <si>
     <t>답변 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 내용 클릭 시 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이지 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기 페이징 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버튼 클릭 시 해당 페이지로 넘어감 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이지 데이터(10개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 등록 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시 질문 등록을 가능하게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이지 질문, 답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글 수정, 등록, 삭제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시 수정, 등록, 삭제 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 DB 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 비밀번호, 이메일 입력 후 계정 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,6 +639,82 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
